--- a/prix/pex.xlsx
+++ b/prix/pex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CA8982-0C0A-4C4A-B7B4-A8E166729073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606654FE-F4B9-4D5B-8006-E629FBDF250F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{C27940F6-7049-4028-8D53-A9BC0C24D70B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C27940F6-7049-4028-8D53-A9BC0C24D70B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="315">
   <si>
     <t>Pex coude 1/2F x16</t>
   </si>
@@ -978,13 +978,16 @@
   </si>
   <si>
     <t>pex-a-sertir/te-reduit.png</t>
+  </si>
+  <si>
+    <t>disponible</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -997,6 +1000,20 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1031,7 +1048,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1055,20 +1072,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1406,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EDDEF9-0BC9-4BCE-BC53-B53A6E5EDDA0}">
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="E128" sqref="E128:E129"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1417,6 +1431,7 @@
     <col min="3" max="3" width="12.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="5"/>
     <col min="7" max="7" width="22.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="51.77734375" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.77734375" style="2" customWidth="1"/>
@@ -1440,7 +1455,10 @@
       <c r="E1" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="G1" s="13"/>
+      <c r="F1" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1" s="11"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1456,14 +1474,16 @@
       <c r="C2" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>5.49</v>
       </c>
       <c r="E2" s="8">
         <v>43122970</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="13"/>
+      <c r="F2" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -1475,14 +1495,16 @@
       <c r="C3" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>8.8000000000000007</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -1494,14 +1516,16 @@
       <c r="C4" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>11.68</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="13"/>
+      <c r="F4" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -1513,14 +1537,16 @@
       <c r="C5" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>5.23</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="13"/>
+      <c r="F5" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -1532,14 +1558,16 @@
       <c r="C6" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>8.2799999999999994</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="13"/>
+      <c r="F6" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -1551,14 +1579,16 @@
       <c r="C7" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>10.97</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="13"/>
+      <c r="F7" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
@@ -1570,14 +1600,16 @@
       <c r="C8" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>4.9000000000000004</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="13"/>
+      <c r="F8" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -1589,14 +1621,16 @@
       <c r="C9" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>5.28</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="13"/>
+      <c r="F9" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -1608,14 +1642,16 @@
       <c r="C10" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>8.6</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="13"/>
+      <c r="F10" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -1627,14 +1663,16 @@
       <c r="C11" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>2.2000000000000002</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="13"/>
+      <c r="F11" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -1646,14 +1684,16 @@
       <c r="C12" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>7.19</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="13"/>
+      <c r="F12" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -1665,14 +1705,16 @@
       <c r="C13" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>5.94</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="13"/>
+      <c r="F13" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -1684,14 +1726,16 @@
       <c r="C14" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>8.1999999999999993</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="13"/>
+      <c r="F14" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -1703,14 +1747,16 @@
       <c r="C15" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>9.4500000000000011</v>
       </c>
       <c r="E15" s="8">
         <v>43122988</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="13"/>
+      <c r="F15" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
@@ -1719,13 +1765,16 @@
       <c r="C16" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>96.15</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="13"/>
+      <c r="F16" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
@@ -1734,13 +1783,16 @@
       <c r="C17" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>88.9</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="13"/>
+      <c r="F17" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
@@ -1749,13 +1801,16 @@
       <c r="C18" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <v>141.72</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="13"/>
+      <c r="F18" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
@@ -1764,13 +1819,16 @@
       <c r="C19" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>141.72</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="13"/>
+      <c r="F19" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G19" s="11"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
@@ -1779,13 +1837,16 @@
       <c r="C20" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>63.08</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="13"/>
+      <c r="F20" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
@@ -1794,13 +1855,16 @@
       <c r="C21" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>63.08</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="13"/>
+      <c r="F21" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
@@ -1809,13 +1873,16 @@
       <c r="C22" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>2.0100000000000002</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="13"/>
+      <c r="F22" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
@@ -1824,13 +1891,16 @@
       <c r="C23" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="9">
         <v>3.75</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="13"/>
+      <c r="F23" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G23" s="11"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
@@ -1839,26 +1909,32 @@
       <c r="C24" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="9">
         <v>7.07</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G24" s="13"/>
+      <c r="F24" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <v>12.61</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="13"/>
+      <c r="F25" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G25" s="11"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
@@ -1867,26 +1943,32 @@
       <c r="C26" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <v>8.65</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G26" s="13"/>
+      <c r="F26" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G26" s="11"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="10">
+      <c r="D27" s="9">
         <v>208.51</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="13"/>
+      <c r="F27" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G27" s="11"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
@@ -1895,13 +1977,16 @@
       <c r="C28" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="9">
         <v>157.20000000000002</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G28" s="13"/>
+      <c r="F28" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
@@ -1910,13 +1995,16 @@
       <c r="C29" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="9">
         <v>67.8</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G29" s="13"/>
+      <c r="F29" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G29" s="11"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
@@ -1925,13 +2013,16 @@
       <c r="C30" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="9">
         <v>106.87</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G30" s="13"/>
+      <c r="F30" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G30" s="11"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
@@ -1940,13 +2031,16 @@
       <c r="C31" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="9">
         <v>70.37</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="13"/>
+      <c r="F31" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G31" s="11"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
@@ -1955,13 +2049,16 @@
       <c r="C32" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="9">
         <v>106.87</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G32" s="13"/>
+      <c r="F32" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B33" s="6" t="s">
@@ -1970,13 +2067,16 @@
       <c r="C33" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="9">
         <v>4.24</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G33" s="13"/>
+      <c r="F33" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
@@ -1985,26 +2085,32 @@
       <c r="C34" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="9">
         <v>3.17</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G34" s="13"/>
+      <c r="F34" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
         <v>64</v>
       </c>
       <c r="C35" s="6"/>
-      <c r="D35" s="10">
+      <c r="D35" s="9">
         <v>45.910000000000004</v>
       </c>
       <c r="E35" s="8">
         <v>43123024</v>
       </c>
-      <c r="G35" s="13"/>
+      <c r="F35" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
@@ -2016,14 +2122,16 @@
       <c r="C36" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="9">
         <v>3.61</v>
       </c>
       <c r="E36" s="8">
         <v>43123030</v>
       </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="13"/>
+      <c r="F36" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
@@ -2035,14 +2143,16 @@
       <c r="C37" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="9">
         <v>5.8</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="13"/>
+      <c r="F37" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
@@ -2054,14 +2164,16 @@
       <c r="C38" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="9">
         <v>5.93</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="13"/>
+      <c r="F38" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
@@ -2073,14 +2185,16 @@
       <c r="C39" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="9">
         <v>5.71</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="13"/>
+      <c r="F39" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G39" s="11"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
@@ -2092,14 +2206,16 @@
       <c r="C40" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="9">
         <v>9.7200000000000006</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="13"/>
+      <c r="F40" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G40" s="11"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
@@ -2111,14 +2227,16 @@
       <c r="C41" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="9">
         <v>4.6900000000000004</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="13"/>
+      <c r="F41" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G41" s="11"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
@@ -2130,14 +2248,16 @@
       <c r="C42" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="9">
         <v>5.49</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="13"/>
+      <c r="F42" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G42" s="11"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
@@ -2149,14 +2269,16 @@
       <c r="C43" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="9">
         <v>6.0600000000000005</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F43" s="11"/>
-      <c r="G43" s="13"/>
+      <c r="F43" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G43" s="11"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
@@ -2168,14 +2290,16 @@
       <c r="C44" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="9">
         <v>6.22</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F44" s="11"/>
-      <c r="G44" s="13"/>
+      <c r="F44" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G44" s="11"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
@@ -2187,14 +2311,16 @@
       <c r="C45" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="9">
         <v>9.64</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F45" s="11"/>
-      <c r="G45" s="13"/>
+      <c r="F45" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
@@ -2206,14 +2332,16 @@
       <c r="C46" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="9">
         <v>8.68</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F46" s="11"/>
-      <c r="G46" s="13"/>
+      <c r="F46" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
@@ -2223,14 +2351,16 @@
         <v>87</v>
       </c>
       <c r="C47" s="6"/>
-      <c r="D47" s="10">
+      <c r="D47" s="9">
         <v>11.8</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="13"/>
+      <c r="F47" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
@@ -2242,14 +2372,16 @@
       <c r="C48" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="9">
         <v>18.05</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F48" s="11"/>
-      <c r="G48" s="13"/>
+      <c r="F48" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
@@ -2261,14 +2393,16 @@
       <c r="C49" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="9">
         <v>8.370000000000001</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F49" s="11"/>
-      <c r="G49" s="13"/>
+      <c r="F49" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
@@ -2280,42 +2414,48 @@
       <c r="C50" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="9">
         <v>15.88</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F50" s="11"/>
-      <c r="G50" s="13"/>
+      <c r="F50" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B51" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C51" s="6"/>
-      <c r="D51" s="10">
+      <c r="D51" s="9">
         <v>9.75</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="13"/>
+      <c r="F51" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B52" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C52" s="6"/>
-      <c r="D52" s="10">
+      <c r="D52" s="9">
         <v>11.08</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F52" s="11"/>
-      <c r="G52" s="13"/>
+      <c r="F52" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G52" s="11"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
@@ -2327,14 +2467,16 @@
       <c r="C53" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="9">
         <v>17.21</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F53" s="11"/>
-      <c r="G53" s="13"/>
+      <c r="F53" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G53" s="11"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
@@ -2346,14 +2488,16 @@
       <c r="C54" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="9">
         <v>13.66</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F54" s="11"/>
-      <c r="G54" s="13"/>
+      <c r="F54" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G54" s="11"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
@@ -2365,14 +2509,16 @@
       <c r="C55" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="9">
         <v>13.88</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F55" s="11"/>
-      <c r="G55" s="13"/>
+      <c r="F55" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G55" s="11"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
@@ -2384,14 +2530,16 @@
       <c r="C56" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="9">
         <v>21.26</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F56" s="11"/>
-      <c r="G56" s="13"/>
+      <c r="F56" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G56" s="11"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
@@ -2403,14 +2551,16 @@
       <c r="C57" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D57" s="9">
         <v>21.26</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F57" s="11"/>
-      <c r="G57" s="13"/>
+      <c r="F57" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G57" s="11"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
@@ -2420,14 +2570,16 @@
         <v>109</v>
       </c>
       <c r="C58" s="6"/>
-      <c r="D58" s="10">
+      <c r="D58" s="9">
         <v>6.15</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="F58" s="11"/>
-      <c r="G58" s="13"/>
+      <c r="F58" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G58" s="11"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
@@ -2437,14 +2589,16 @@
         <v>111</v>
       </c>
       <c r="C59" s="6"/>
-      <c r="D59" s="10">
+      <c r="D59" s="9">
         <v>9.99</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F59" s="11"/>
-      <c r="G59" s="13"/>
+      <c r="F59" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
@@ -2454,14 +2608,16 @@
         <v>113</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="10">
+      <c r="D60" s="9">
         <v>15.49</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="F60" s="11"/>
-      <c r="G60" s="13"/>
+      <c r="F60" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G60" s="11"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
@@ -2473,14 +2629,16 @@
       <c r="C61" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="9">
         <v>20.34</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F61" s="11"/>
-      <c r="G61" s="13"/>
+      <c r="F61" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
@@ -2492,14 +2650,16 @@
       <c r="C62" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="9">
         <v>6.92</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="F62" s="11"/>
-      <c r="G62" s="13"/>
+      <c r="F62" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G62" s="11"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
@@ -2511,14 +2671,16 @@
       <c r="C63" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63" s="9">
         <v>8.39</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="F63" s="11"/>
-      <c r="G63" s="13"/>
+      <c r="F63" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G63" s="11"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B64" s="6" t="s">
@@ -2527,14 +2689,16 @@
       <c r="C64" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="9">
         <v>4.4000000000000004</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="F64" s="11"/>
-      <c r="G64" s="13"/>
+      <c r="F64" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G64" s="11"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B65" s="6" t="s">
@@ -2543,14 +2707,16 @@
       <c r="C65" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D65" s="9">
         <v>9.99</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="F65" s="11"/>
-      <c r="G65" s="13"/>
+      <c r="F65" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G65" s="11"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B66" s="6" t="s">
@@ -2559,14 +2725,16 @@
       <c r="C66" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D66" s="9">
         <v>9.99</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F66" s="11"/>
-      <c r="G66" s="13"/>
+      <c r="F66" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G66" s="11"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
@@ -2578,14 +2746,16 @@
       <c r="C67" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D67" s="9">
         <v>5.53</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F67" s="11"/>
-      <c r="G67" s="13"/>
+      <c r="F67" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G67" s="11"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
@@ -2597,14 +2767,16 @@
       <c r="C68" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D68" s="9">
         <v>8.8000000000000007</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F68" s="11"/>
-      <c r="G68" s="13"/>
+      <c r="F68" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G68" s="11"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
@@ -2616,14 +2788,16 @@
       <c r="C69" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D69" s="9">
         <v>13.77</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="F69" s="11"/>
-      <c r="G69" s="13"/>
+      <c r="F69" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G69" s="11"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
@@ -2635,14 +2809,16 @@
       <c r="C70" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D70" s="9">
         <v>4.68</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F70" s="11"/>
-      <c r="G70" s="13"/>
+      <c r="F70" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G70" s="11"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
@@ -2654,14 +2830,16 @@
       <c r="C71" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D71" s="9">
         <v>5.42</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F71" s="11"/>
-      <c r="G71" s="13"/>
+      <c r="F71" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G71" s="11"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B72" s="6" t="s">
@@ -2670,14 +2848,16 @@
       <c r="C72" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D72" s="9">
         <v>0.68</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="F72" s="11"/>
-      <c r="G72" s="13"/>
+      <c r="F72" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G72" s="11"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B73" s="6" t="s">
@@ -2686,14 +2866,16 @@
       <c r="C73" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D73" s="9">
         <v>0.68</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="F73" s="11"/>
-      <c r="G73" s="13"/>
+      <c r="F73" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G73" s="11"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
@@ -2705,14 +2887,16 @@
       <c r="C74" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D74" s="9">
         <v>7.96</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="F74" s="11"/>
-      <c r="G74" s="13"/>
+      <c r="F74" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G74" s="11"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
@@ -2724,14 +2908,16 @@
       <c r="C75" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D75" s="9">
         <v>19.14</v>
       </c>
       <c r="E75" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="F75" s="11"/>
-      <c r="G75" s="13"/>
+      <c r="F75" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G75" s="11"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
@@ -2743,14 +2929,16 @@
       <c r="C76" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D76" s="9">
         <v>23.35</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F76" s="11"/>
-      <c r="G76" s="13"/>
+      <c r="F76" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G76" s="11"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
@@ -2762,14 +2950,16 @@
       <c r="C77" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="D77" s="10">
+      <c r="D77" s="9">
         <v>9.9700000000000006</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="F77" s="11"/>
-      <c r="G77" s="13"/>
+      <c r="F77" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G77" s="11"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
@@ -2781,14 +2971,16 @@
       <c r="C78" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="D78" s="10">
+      <c r="D78" s="9">
         <v>10.620000000000001</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="F78" s="11"/>
-      <c r="G78" s="13"/>
+      <c r="F78" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G78" s="11"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
@@ -2800,14 +2992,16 @@
       <c r="C79" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="D79" s="10">
+      <c r="D79" s="9">
         <v>11.86</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="F79" s="11"/>
-      <c r="G79" s="13"/>
+      <c r="F79" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G79" s="11"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
@@ -2819,14 +3013,16 @@
       <c r="C80" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D80" s="10">
+      <c r="D80" s="9">
         <v>10.55</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="F80" s="11"/>
-      <c r="G80" s="13"/>
+      <c r="F80" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G80" s="11"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
@@ -2838,14 +3034,16 @@
       <c r="C81" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="D81" s="10">
+      <c r="D81" s="9">
         <v>12.63</v>
       </c>
       <c r="E81" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="F81" s="11"/>
-      <c r="G81" s="13"/>
+      <c r="F81" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G81" s="11"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
@@ -2857,14 +3055,16 @@
       <c r="C82" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D82" s="10">
+      <c r="D82" s="9">
         <v>13.89</v>
       </c>
       <c r="E82" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="F82" s="11"/>
-      <c r="G82" s="13"/>
+      <c r="F82" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G82" s="11"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
@@ -2876,14 +3076,16 @@
       <c r="C83" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="D83" s="10">
+      <c r="D83" s="9">
         <v>12.1</v>
       </c>
       <c r="E83" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="F83" s="11"/>
-      <c r="G83" s="13"/>
+      <c r="F83" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G83" s="11"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
@@ -2895,14 +3097,16 @@
       <c r="C84" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="D84" s="10">
+      <c r="D84" s="9">
         <v>13.31</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="F84" s="11"/>
-      <c r="G84" s="13"/>
+      <c r="F84" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G84" s="11"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
@@ -2914,14 +3118,16 @@
       <c r="C85" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="D85" s="10">
+      <c r="D85" s="9">
         <v>23.62</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="F85" s="11"/>
-      <c r="G85" s="13"/>
+      <c r="F85" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G85" s="11"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
@@ -2933,14 +3139,16 @@
       <c r="C86" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="D86" s="10">
+      <c r="D86" s="9">
         <v>6.61</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="F86" s="11"/>
-      <c r="G86" s="13"/>
+      <c r="F86" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G86" s="11"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
@@ -2952,14 +3160,16 @@
       <c r="C87" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="D87" s="10">
+      <c r="D87" s="9">
         <v>7.55</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="F87" s="11"/>
-      <c r="G87" s="13"/>
+      <c r="F87" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G87" s="11"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
@@ -2971,14 +3181,16 @@
       <c r="C88" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D88" s="10">
+      <c r="D88" s="9">
         <v>8.86</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F88" s="11"/>
-      <c r="G88" s="13"/>
+      <c r="F88" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G88" s="11"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
@@ -2990,14 +3202,16 @@
       <c r="C89" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D89" s="10">
+      <c r="D89" s="9">
         <v>1.82</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="F89" s="11"/>
-      <c r="G89" s="13"/>
+      <c r="F89" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G89" s="11"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
@@ -3009,14 +3223,16 @@
       <c r="C90" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="D90" s="10">
+      <c r="D90" s="9">
         <v>4.8899999999999997</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="F90" s="11"/>
-      <c r="G90" s="13"/>
+      <c r="F90" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G90" s="11"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
@@ -3028,14 +3244,16 @@
       <c r="C91" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D91" s="10">
+      <c r="D91" s="9">
         <v>5.42</v>
       </c>
       <c r="E91" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="F91" s="11"/>
-      <c r="G91" s="13"/>
+      <c r="F91" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G91" s="11"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
@@ -3047,14 +3265,16 @@
       <c r="C92" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D92" s="10">
+      <c r="D92" s="9">
         <v>5.1100000000000003</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="F92" s="11"/>
-      <c r="G92" s="13"/>
+      <c r="F92" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G92" s="11"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
@@ -3066,14 +3286,16 @@
       <c r="C93" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D93" s="10">
+      <c r="D93" s="9">
         <v>10.02</v>
       </c>
       <c r="E93" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="F93" s="11"/>
-      <c r="G93" s="13"/>
+      <c r="F93" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G93" s="11"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
@@ -3085,14 +3307,16 @@
       <c r="C94" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D94" s="10">
+      <c r="D94" s="9">
         <v>2.1800000000000002</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="F94" s="11"/>
-      <c r="G94" s="13"/>
+      <c r="F94" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G94" s="11"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
@@ -3104,14 +3328,16 @@
       <c r="C95" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="D95" s="10">
+      <c r="D95" s="9">
         <v>8.32</v>
       </c>
       <c r="E95" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="F95" s="11"/>
-      <c r="G95" s="13"/>
+      <c r="F95" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G95" s="11"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
@@ -3123,14 +3349,16 @@
       <c r="C96" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D96" s="10">
+      <c r="D96" s="9">
         <v>8.32</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F96" s="11"/>
-      <c r="G96" s="13"/>
+      <c r="F96" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G96" s="11"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
@@ -3142,14 +3370,16 @@
       <c r="C97" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D97" s="10">
+      <c r="D97" s="9">
         <v>7.84</v>
       </c>
       <c r="E97" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="F97" s="11"/>
-      <c r="G97" s="13"/>
+      <c r="F97" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G97" s="11"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
@@ -3161,14 +3391,16 @@
       <c r="C98" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D98" s="10">
+      <c r="D98" s="9">
         <v>13.31</v>
       </c>
       <c r="E98" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="F98" s="11"/>
-      <c r="G98" s="13"/>
+      <c r="F98" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G98" s="11"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
@@ -3180,14 +3412,16 @@
       <c r="C99" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D99" s="10">
+      <c r="D99" s="9">
         <v>8.25</v>
       </c>
       <c r="E99" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="F99" s="11"/>
-      <c r="G99" s="13"/>
+      <c r="F99" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G99" s="11"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
@@ -3199,14 +3433,16 @@
       <c r="C100" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D100" s="10">
+      <c r="D100" s="9">
         <v>6.87</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="F100" s="11"/>
-      <c r="G100" s="13"/>
+      <c r="F100" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G100" s="11"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
@@ -3218,14 +3454,16 @@
       <c r="C101" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D101" s="10">
+      <c r="D101" s="9">
         <v>26.18</v>
       </c>
       <c r="E101" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="F101" s="11"/>
-      <c r="G101" s="13"/>
+      <c r="F101" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G101" s="11"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
@@ -3237,14 +3475,16 @@
       <c r="C102" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="D102" s="10">
+      <c r="D102" s="9">
         <v>5.95</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="F102" s="11"/>
-      <c r="G102" s="13"/>
+      <c r="F102" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G102" s="11"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
@@ -3256,14 +3496,16 @@
       <c r="C103" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="D103" s="10">
+      <c r="D103" s="9">
         <v>9.6300000000000008</v>
       </c>
       <c r="E103" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F103" s="11"/>
-      <c r="G103" s="13"/>
+      <c r="F103" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G103" s="11"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
@@ -3275,14 +3517,16 @@
       <c r="C104" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D104" s="10">
+      <c r="D104" s="9">
         <v>10.48</v>
       </c>
       <c r="E104" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="F104" s="11"/>
-      <c r="G104" s="13"/>
+      <c r="F104" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G104" s="11"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
@@ -3294,14 +3538,16 @@
       <c r="C105" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D105" s="10">
+      <c r="D105" s="9">
         <v>6.61</v>
       </c>
       <c r="E105" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F105" s="11"/>
-      <c r="G105" s="13"/>
+      <c r="F105" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G105" s="11"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
@@ -3313,14 +3559,16 @@
       <c r="C106" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D106" s="10">
+      <c r="D106" s="9">
         <v>5.83</v>
       </c>
       <c r="E106" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="F106" s="11"/>
-      <c r="G106" s="13"/>
+      <c r="F106" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G106" s="11"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
@@ -3332,14 +3580,16 @@
       <c r="C107" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="D107" s="10">
+      <c r="D107" s="9">
         <v>5.83</v>
       </c>
       <c r="E107" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="F107" s="11"/>
-      <c r="G107" s="13"/>
+      <c r="F107" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G107" s="11"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
@@ -3351,14 +3601,16 @@
       <c r="C108" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D108" s="10">
+      <c r="D108" s="9">
         <v>13.02</v>
       </c>
       <c r="E108" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F108" s="11"/>
-      <c r="G108" s="13"/>
+      <c r="F108" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G108" s="11"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
@@ -3370,14 +3622,16 @@
       <c r="C109" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D109" s="10">
+      <c r="D109" s="9">
         <v>6.34</v>
       </c>
       <c r="E109" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="F109" s="11"/>
-      <c r="G109" s="13"/>
+      <c r="F109" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G109" s="11"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
@@ -3389,14 +3643,16 @@
       <c r="C110" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D110" s="10">
+      <c r="D110" s="9">
         <v>10.55</v>
       </c>
       <c r="E110" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="F110" s="11"/>
-      <c r="G110" s="13"/>
+      <c r="F110" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G110" s="11"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
@@ -3408,14 +3664,16 @@
       <c r="C111" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D111" s="10">
+      <c r="D111" s="9">
         <v>10.55</v>
       </c>
       <c r="E111" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="F111" s="11"/>
-      <c r="G111" s="13"/>
+      <c r="F111" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G111" s="11"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
@@ -3427,14 +3685,16 @@
       <c r="C112" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="D112" s="10">
+      <c r="D112" s="9">
         <v>10.55</v>
       </c>
       <c r="E112" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="F112" s="11"/>
-      <c r="G112" s="13"/>
+      <c r="F112" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G112" s="11"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
@@ -3446,14 +3706,16 @@
       <c r="C113" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="D113" s="10">
+      <c r="D113" s="9">
         <v>6</v>
       </c>
       <c r="E113" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="F113" s="11"/>
-      <c r="G113" s="13"/>
+      <c r="F113" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G113" s="11"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
@@ -3465,14 +3727,16 @@
       <c r="C114" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="D114" s="10">
+      <c r="D114" s="9">
         <v>7.57</v>
       </c>
       <c r="E114" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="F114" s="11"/>
-      <c r="G114" s="13"/>
+      <c r="F114" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G114" s="11"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B115" s="6" t="s">
@@ -3481,28 +3745,32 @@
       <c r="C115" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D115" s="10">
+      <c r="D115" s="9">
         <v>6.61</v>
       </c>
       <c r="E115" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="F115" s="11"/>
-      <c r="G115" s="13"/>
+      <c r="F115" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G115" s="11"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B116" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C116" s="6"/>
-      <c r="D116" s="10">
+      <c r="D116" s="9">
         <v>10.89</v>
       </c>
       <c r="E116" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="F116" s="11"/>
-      <c r="G116" s="13"/>
+      <c r="F116" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G116" s="11"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B117" s="6" t="s">
@@ -3511,14 +3779,16 @@
       <c r="C117" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D117" s="10">
+      <c r="D117" s="9">
         <v>9.17</v>
       </c>
       <c r="E117" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="F117" s="11"/>
-      <c r="G117" s="13"/>
+      <c r="F117" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G117" s="11"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B118" s="6" t="s">
@@ -3527,14 +3797,16 @@
       <c r="C118" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D118" s="10">
+      <c r="D118" s="9">
         <v>10.65</v>
       </c>
       <c r="E118" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="F118" s="11"/>
-      <c r="G118" s="13"/>
+      <c r="F118" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G118" s="11"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B119" s="6" t="s">
@@ -3543,14 +3815,16 @@
       <c r="C119" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="D119" s="10">
+      <c r="D119" s="9">
         <v>36.090000000000003</v>
       </c>
       <c r="E119" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="F119" s="11"/>
-      <c r="G119" s="13"/>
+      <c r="F119" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G119" s="11"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
@@ -3562,14 +3836,16 @@
       <c r="C120" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D120" s="10">
+      <c r="D120" s="9">
         <v>4.1900000000000004</v>
       </c>
       <c r="E120" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="F120" s="11"/>
-      <c r="G120" s="13"/>
+      <c r="F120" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G120" s="11"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
@@ -3581,14 +3857,16 @@
       <c r="C121" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D121" s="10">
+      <c r="D121" s="9">
         <v>5.37</v>
       </c>
       <c r="E121" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="F121" s="11"/>
-      <c r="G121" s="13"/>
+      <c r="F121" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G121" s="11"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
@@ -3600,14 +3878,16 @@
       <c r="C122" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="D122" s="10">
+      <c r="D122" s="9">
         <v>5.64</v>
       </c>
       <c r="E122" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="F122" s="11"/>
-      <c r="G122" s="13"/>
+      <c r="F122" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G122" s="11"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
@@ -3619,14 +3899,16 @@
       <c r="C123" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D123" s="10">
+      <c r="D123" s="9">
         <v>6.87</v>
       </c>
       <c r="E123" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="F123" s="11"/>
-      <c r="G123" s="13"/>
+      <c r="F123" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G123" s="11"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
@@ -3638,14 +3920,16 @@
       <c r="C124" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D124" s="10">
+      <c r="D124" s="9">
         <v>6.34</v>
       </c>
       <c r="E124" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="F124" s="11"/>
-      <c r="G124" s="13"/>
+      <c r="F124" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G124" s="11"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
@@ -3657,14 +3941,16 @@
       <c r="C125" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="D125" s="10">
+      <c r="D125" s="9">
         <v>12.1</v>
       </c>
       <c r="E125" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="F125" s="11"/>
-      <c r="G125" s="13"/>
+      <c r="F125" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G125" s="11"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
@@ -3676,14 +3962,16 @@
       <c r="C126" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D126" s="10">
+      <c r="D126" s="9">
         <v>12.1</v>
       </c>
       <c r="E126" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="F126" s="11"/>
-      <c r="G126" s="13"/>
+      <c r="F126" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G126" s="11"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
@@ -3695,14 +3983,16 @@
       <c r="C127" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="D127" s="10">
+      <c r="D127" s="9">
         <v>12.1</v>
       </c>
       <c r="E127" s="8">
         <v>43123133</v>
       </c>
-      <c r="F127" s="11"/>
-      <c r="G127" s="13"/>
+      <c r="F127" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G127" s="11"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
@@ -3717,11 +4007,14 @@
       <c r="D128" s="7">
         <v>8.51</v>
       </c>
-      <c r="E128" s="12">
+      <c r="E128" s="10">
         <v>43107593</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F128" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>297</v>
       </c>
@@ -3734,11 +4027,15 @@
       <c r="D129" s="7">
         <v>8.51</v>
       </c>
-      <c r="E129" s="12">
+      <c r="E129" s="10">
         <v>43107594</v>
       </c>
+      <c r="F129" s="6" t="s">
+        <v>280</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/prix/pex.xlsx
+++ b/prix/pex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raccords-plomberie\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606654FE-F4B9-4D5B-8006-E629FBDF250F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AD4AD1-F0E2-47A4-9B09-D546B45E0594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C27940F6-7049-4028-8D53-A9BC0C24D70B}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{C27940F6-7049-4028-8D53-A9BC0C24D70B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="317">
   <si>
     <t>Pex coude 1/2F x16</t>
   </si>
@@ -981,6 +981,12 @@
   </si>
   <si>
     <t>disponible</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
 </sst>
 </file>
@@ -1078,11 +1084,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1420,9 +1426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EDDEF9-0BC9-4BCE-BC53-B53A6E5EDDA0}">
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1455,10 +1459,10 @@
       <c r="E1" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="G1" s="11"/>
+      <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1480,10 +1484,9 @@
       <c r="E2" s="8">
         <v>43122970</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G2" s="11"/>
+      <c r="F2" s="12">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -1501,10 +1504,9 @@
       <c r="E3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G3" s="11"/>
+      <c r="F3" s="12">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -1522,10 +1524,9 @@
       <c r="E4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G4" s="11"/>
+      <c r="F4" s="12">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -1543,10 +1544,9 @@
       <c r="E5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G5" s="11"/>
+      <c r="F5" s="12">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -1564,10 +1564,9 @@
       <c r="E6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G6" s="11"/>
+      <c r="F6" s="12">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -1585,10 +1584,9 @@
       <c r="E7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G7" s="11"/>
+      <c r="F7" s="12">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
@@ -1606,10 +1604,9 @@
       <c r="E8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G8" s="11"/>
+      <c r="F8" s="12">
+        <v>227</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -1627,10 +1624,9 @@
       <c r="E9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G9" s="11"/>
+      <c r="F9" s="12">
+        <v>88</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -1648,10 +1644,9 @@
       <c r="E10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G10" s="11"/>
+      <c r="F10" s="12">
+        <v>95</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -1669,10 +1664,9 @@
       <c r="E11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G11" s="11"/>
+      <c r="F11" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -1690,10 +1684,9 @@
       <c r="E12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G12" s="11"/>
+      <c r="F12" s="12">
+        <v>43</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -1711,10 +1704,9 @@
       <c r="E13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G13" s="11"/>
+      <c r="F13" s="12">
+        <v>58</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -1732,10 +1724,9 @@
       <c r="E14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G14" s="11"/>
+      <c r="F14" s="12">
+        <v>54</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -1753,10 +1744,9 @@
       <c r="E15" s="8">
         <v>43122988</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G15" s="11"/>
+      <c r="F15" s="12">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
@@ -1771,12 +1761,11 @@
       <c r="E16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F16" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>29</v>
       </c>
@@ -1789,12 +1778,11 @@
       <c r="E17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F17" s="12">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
         <v>31</v>
       </c>
@@ -1807,12 +1795,11 @@
       <c r="E18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F18" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
         <v>33</v>
       </c>
@@ -1825,12 +1812,11 @@
       <c r="E19" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F19" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
         <v>35</v>
       </c>
@@ -1843,12 +1829,11 @@
       <c r="E20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F20" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
         <v>37</v>
       </c>
@@ -1861,12 +1846,11 @@
       <c r="E21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F21" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
         <v>39</v>
       </c>
@@ -1879,12 +1863,11 @@
       <c r="E22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F22" s="12">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
         <v>41</v>
       </c>
@@ -1897,12 +1880,11 @@
       <c r="E23" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F23" s="12">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
         <v>43</v>
       </c>
@@ -1915,12 +1897,11 @@
       <c r="E24" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F24" s="12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
         <v>45</v>
       </c>
@@ -1931,12 +1912,11 @@
       <c r="E25" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F25" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
         <v>47</v>
       </c>
@@ -1949,12 +1929,11 @@
       <c r="E26" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F26" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
         <v>49</v>
       </c>
@@ -1965,12 +1944,11 @@
       <c r="E27" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F27" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
         <v>51</v>
       </c>
@@ -1983,12 +1961,11 @@
       <c r="E28" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F28" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
         <v>53</v>
       </c>
@@ -2001,12 +1978,11 @@
       <c r="E29" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F29" s="12">
+        <v>1.9999999999999876</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
         <v>55</v>
       </c>
@@ -2019,12 +1995,11 @@
       <c r="E30" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F30" s="12">
+        <v>3.0000000000000133</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
         <v>57</v>
       </c>
@@ -2037,12 +2012,11 @@
       <c r="E31" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G31" s="11"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F31" s="12">
+        <v>-1.2434497875801753E-14</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
         <v>59</v>
       </c>
@@ -2055,12 +2029,11 @@
       <c r="E32" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G32" s="11"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F32" s="12">
+        <v>5.0000000000000213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B33" s="6" t="s">
         <v>61</v>
       </c>
@@ -2073,12 +2046,11 @@
       <c r="E33" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F33" s="12">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
         <v>63</v>
       </c>
@@ -2091,12 +2063,11 @@
       <c r="E34" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F34" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F34" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
         <v>64</v>
       </c>
@@ -2107,12 +2078,11 @@
       <c r="E35" s="8">
         <v>43123024</v>
       </c>
-      <c r="F35" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F35" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>292</v>
       </c>
@@ -2128,12 +2098,11 @@
       <c r="E36" s="8">
         <v>43123030</v>
       </c>
-      <c r="F36" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G36" s="11"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F36" s="12">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>292</v>
       </c>
@@ -2149,12 +2118,11 @@
       <c r="E37" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F37" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G37" s="11"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F37" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>292</v>
       </c>
@@ -2170,12 +2138,11 @@
       <c r="E38" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F38" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G38" s="11"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F38" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>292</v>
       </c>
@@ -2191,12 +2158,11 @@
       <c r="E39" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F39" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G39" s="11"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F39" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>292</v>
       </c>
@@ -2212,12 +2178,11 @@
       <c r="E40" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G40" s="11"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F40" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>291</v>
       </c>
@@ -2233,12 +2198,11 @@
       <c r="E41" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F41" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G41" s="11"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F41" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>291</v>
       </c>
@@ -2254,12 +2218,11 @@
       <c r="E42" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F42" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G42" s="11"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F42" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>291</v>
       </c>
@@ -2275,12 +2238,11 @@
       <c r="E43" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F43" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G43" s="11"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>291</v>
       </c>
@@ -2296,12 +2258,11 @@
       <c r="E44" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F44" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G44" s="11"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F44" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>291</v>
       </c>
@@ -2317,12 +2278,11 @@
       <c r="E45" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F45" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G45" s="11"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F45" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>296</v>
       </c>
@@ -2338,12 +2298,11 @@
       <c r="E46" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F46" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G46" s="11"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F46" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>296</v>
       </c>
@@ -2357,12 +2316,11 @@
       <c r="E47" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F47" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G47" s="11"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F47" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>296</v>
       </c>
@@ -2378,12 +2336,11 @@
       <c r="E48" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F48" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G48" s="11"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F48" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>293</v>
       </c>
@@ -2399,12 +2356,11 @@
       <c r="E49" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F49" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G49" s="11"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F49" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>293</v>
       </c>
@@ -2420,12 +2376,11 @@
       <c r="E50" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F50" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G50" s="11"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F50" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B51" s="6" t="s">
         <v>95</v>
       </c>
@@ -2436,12 +2391,11 @@
       <c r="E51" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F51" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G51" s="11"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F51" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B52" s="6" t="s">
         <v>97</v>
       </c>
@@ -2452,12 +2406,11 @@
       <c r="E52" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F52" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G52" s="11"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F52" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>294</v>
       </c>
@@ -2473,12 +2426,11 @@
       <c r="E53" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F53" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G53" s="11"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F53" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>294</v>
       </c>
@@ -2494,12 +2446,11 @@
       <c r="E54" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F54" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G54" s="11"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F54" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>295</v>
       </c>
@@ -2515,12 +2466,11 @@
       <c r="E55" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F55" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G55" s="11"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F55" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>295</v>
       </c>
@@ -2536,12 +2486,11 @@
       <c r="E56" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F56" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G56" s="11"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F56" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>295</v>
       </c>
@@ -2557,12 +2506,11 @@
       <c r="E57" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F57" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G57" s="11"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F57" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>289</v>
       </c>
@@ -2576,12 +2524,11 @@
       <c r="E58" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="F58" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G58" s="11"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F58" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>289</v>
       </c>
@@ -2595,12 +2542,11 @@
       <c r="E59" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F59" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G59" s="11"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F59" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>289</v>
       </c>
@@ -2614,12 +2560,11 @@
       <c r="E60" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="F60" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G60" s="11"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F60" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>286</v>
       </c>
@@ -2635,12 +2580,11 @@
       <c r="E61" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F61" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G61" s="11"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F61" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>287</v>
       </c>
@@ -2656,12 +2600,11 @@
       <c r="E62" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="F62" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G62" s="11"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F62" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>287</v>
       </c>
@@ -2677,12 +2620,11 @@
       <c r="E63" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="F63" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G63" s="11"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F63" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B64" s="6" t="s">
         <v>121</v>
       </c>
@@ -2695,12 +2637,11 @@
       <c r="E64" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="F64" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G64" s="11"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F64" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B65" s="6" t="s">
         <v>123</v>
       </c>
@@ -2713,12 +2654,11 @@
       <c r="E65" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="F65" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G65" s="11"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F65" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B66" s="6" t="s">
         <v>125</v>
       </c>
@@ -2731,12 +2671,11 @@
       <c r="E66" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F66" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G66" s="11"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F66" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>288</v>
       </c>
@@ -2752,12 +2691,11 @@
       <c r="E67" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F67" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G67" s="11"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>288</v>
       </c>
@@ -2773,12 +2711,11 @@
       <c r="E68" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F68" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G68" s="11"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F68" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>288</v>
       </c>
@@ -2794,12 +2731,11 @@
       <c r="E69" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="F69" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G69" s="11"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F69" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>282</v>
       </c>
@@ -2815,12 +2751,11 @@
       <c r="E70" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F70" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G70" s="11"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F70" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>282</v>
       </c>
@@ -2836,12 +2771,11 @@
       <c r="E71" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F71" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G71" s="11"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F71" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B72" s="6" t="s">
         <v>137</v>
       </c>
@@ -2854,12 +2788,11 @@
       <c r="E72" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="F72" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G72" s="11"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F72" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B73" s="6" t="s">
         <v>139</v>
       </c>
@@ -2872,12 +2805,11 @@
       <c r="E73" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="F73" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G73" s="11"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F73" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>304</v>
       </c>
@@ -2893,12 +2825,11 @@
       <c r="E74" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="F74" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G74" s="11"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F74" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>304</v>
       </c>
@@ -2914,12 +2845,11 @@
       <c r="E75" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="F75" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G75" s="11"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F75" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>303</v>
       </c>
@@ -2935,12 +2865,11 @@
       <c r="E76" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F76" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G76" s="11"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F76" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>311</v>
       </c>
@@ -2956,12 +2885,11 @@
       <c r="E77" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="F77" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G77" s="11"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F77" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>311</v>
       </c>
@@ -2977,12 +2905,11 @@
       <c r="E78" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="F78" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G78" s="11"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F78" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>311</v>
       </c>
@@ -2998,12 +2925,11 @@
       <c r="E79" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="F79" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G79" s="11"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F79" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>310</v>
       </c>
@@ -3019,12 +2945,11 @@
       <c r="E80" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="F80" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G80" s="11"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F80" s="12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>310</v>
       </c>
@@ -3040,12 +2965,11 @@
       <c r="E81" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="F81" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G81" s="11"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F81" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>310</v>
       </c>
@@ -3061,12 +2985,11 @@
       <c r="E82" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="F82" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G82" s="11"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F82" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>313</v>
       </c>
@@ -3082,12 +3005,11 @@
       <c r="E83" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="F83" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G83" s="11"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F83" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>313</v>
       </c>
@@ -3103,12 +3025,11 @@
       <c r="E84" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="F84" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G84" s="11"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F84" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>313</v>
       </c>
@@ -3124,12 +3045,11 @@
       <c r="E85" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="F85" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G85" s="11"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F85" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>306</v>
       </c>
@@ -3145,12 +3065,11 @@
       <c r="E86" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="F86" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G86" s="11"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F86" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>306</v>
       </c>
@@ -3166,12 +3085,11 @@
       <c r="E87" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="F87" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G87" s="11"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F87" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>306</v>
       </c>
@@ -3187,12 +3105,11 @@
       <c r="E88" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F88" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G88" s="11"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F88" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>309</v>
       </c>
@@ -3208,12 +3125,11 @@
       <c r="E89" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="F89" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G89" s="11"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F89" s="12">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>309</v>
       </c>
@@ -3229,12 +3145,11 @@
       <c r="E90" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="F90" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G90" s="11"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F90" s="12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>309</v>
       </c>
@@ -3250,12 +3165,11 @@
       <c r="E91" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="F91" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G91" s="11"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F91" s="12">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>309</v>
       </c>
@@ -3271,12 +3185,11 @@
       <c r="E92" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="F92" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G92" s="11"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F92" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>309</v>
       </c>
@@ -3292,12 +3205,11 @@
       <c r="E93" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="F93" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G93" s="11"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F93" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>307</v>
       </c>
@@ -3313,12 +3225,11 @@
       <c r="E94" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="F94" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G94" s="11"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F94" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>307</v>
       </c>
@@ -3334,12 +3245,11 @@
       <c r="E95" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="F95" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G95" s="11"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F95" s="12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>307</v>
       </c>
@@ -3355,12 +3265,11 @@
       <c r="E96" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F96" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G96" s="11"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F96" s="12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>307</v>
       </c>
@@ -3376,12 +3285,11 @@
       <c r="E97" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="F97" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G97" s="11"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F97" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>307</v>
       </c>
@@ -3397,12 +3305,11 @@
       <c r="E98" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="F98" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G98" s="11"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F98" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>300</v>
       </c>
@@ -3418,12 +3325,11 @@
       <c r="E99" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="F99" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G99" s="11"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F99" s="12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>300</v>
       </c>
@@ -3439,12 +3345,11 @@
       <c r="E100" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="F100" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G100" s="11"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F100" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>300</v>
       </c>
@@ -3460,12 +3365,11 @@
       <c r="E101" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="F101" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G101" s="11"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F101" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>299</v>
       </c>
@@ -3481,12 +3385,11 @@
       <c r="E102" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="F102" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G102" s="11"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F102" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>299</v>
       </c>
@@ -3502,12 +3405,11 @@
       <c r="E103" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F103" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G103" s="11"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F103" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>299</v>
       </c>
@@ -3523,12 +3425,11 @@
       <c r="E104" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="F104" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G104" s="11"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F104" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>302</v>
       </c>
@@ -3544,12 +3445,11 @@
       <c r="E105" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F105" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G105" s="11"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F105" s="12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>302</v>
       </c>
@@ -3565,12 +3465,11 @@
       <c r="E106" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="F106" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G106" s="11"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F106" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>302</v>
       </c>
@@ -3586,12 +3485,11 @@
       <c r="E107" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="F107" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G107" s="11"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F107" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>302</v>
       </c>
@@ -3607,12 +3505,11 @@
       <c r="E108" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F108" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G108" s="11"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F108" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>301</v>
       </c>
@@ -3628,12 +3525,11 @@
       <c r="E109" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="F109" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G109" s="11"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F109" s="12">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>301</v>
       </c>
@@ -3649,12 +3545,11 @@
       <c r="E110" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="F110" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G110" s="11"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F110" s="12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>301</v>
       </c>
@@ -3670,12 +3565,11 @@
       <c r="E111" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="F111" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G111" s="11"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F111" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>301</v>
       </c>
@@ -3691,12 +3585,11 @@
       <c r="E112" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="F112" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G112" s="11"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F112" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>298</v>
       </c>
@@ -3712,12 +3605,11 @@
       <c r="E113" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="F113" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G113" s="11"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F113" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>298</v>
       </c>
@@ -3733,12 +3625,11 @@
       <c r="E114" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="F114" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G114" s="11"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F114" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B115" s="6" t="s">
         <v>223</v>
       </c>
@@ -3751,12 +3642,11 @@
       <c r="E115" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="F115" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G115" s="11"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F115" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B116" s="6" t="s">
         <v>95</v>
       </c>
@@ -3767,12 +3657,11 @@
       <c r="E116" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="F116" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G116" s="11"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F116" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B117" s="6" t="s">
         <v>226</v>
       </c>
@@ -3785,12 +3674,11 @@
       <c r="E117" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="F117" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G117" s="11"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F117" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B118" s="6" t="s">
         <v>228</v>
       </c>
@@ -3803,12 +3691,11 @@
       <c r="E118" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="F118" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G118" s="11"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F118" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B119" s="6" t="s">
         <v>230</v>
       </c>
@@ -3821,12 +3708,11 @@
       <c r="E119" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="F119" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G119" s="11"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F119" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>308</v>
       </c>
@@ -3842,12 +3728,11 @@
       <c r="E120" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="F120" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G120" s="11"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F120" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>308</v>
       </c>
@@ -3863,12 +3748,11 @@
       <c r="E121" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="F121" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G121" s="11"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F121" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>308</v>
       </c>
@@ -3884,12 +3768,11 @@
       <c r="E122" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="F122" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G122" s="11"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F122" s="12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>308</v>
       </c>
@@ -3905,12 +3788,11 @@
       <c r="E123" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="F123" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G123" s="11"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F123" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>308</v>
       </c>
@@ -3926,12 +3808,11 @@
       <c r="E124" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="F124" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G124" s="11"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F124" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>312</v>
       </c>
@@ -3947,12 +3828,11 @@
       <c r="E125" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="F125" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G125" s="11"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F125" s="12">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>312</v>
       </c>
@@ -3968,12 +3848,11 @@
       <c r="E126" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="F126" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G126" s="11"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F126" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>312</v>
       </c>
@@ -3989,12 +3868,11 @@
       <c r="E127" s="8">
         <v>43123133</v>
       </c>
-      <c r="F127" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G127" s="11"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F127" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>297</v>
       </c>
@@ -4011,7 +3889,7 @@
         <v>43107593</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -4031,11 +3909,12 @@
         <v>43107594</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/prix/pex.xlsx
+++ b/prix/pex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AD4AD1-F0E2-47A4-9B09-D546B45E0594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303B192A-FB9D-49B9-AA28-502371A361FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{C27940F6-7049-4028-8D53-A9BC0C24D70B}"/>
   </bookViews>
@@ -986,7 +986,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>15</t>
+    <t>11</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1054,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1084,11 +1084,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1426,7 +1429,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EDDEF9-0BC9-4BCE-BC53-B53A6E5EDDA0}">
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1435,7 +1440,7 @@
     <col min="3" max="3" width="12.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="5"/>
+    <col min="6" max="6" width="11.5546875" style="13"/>
     <col min="7" max="7" width="22.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="51.77734375" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.77734375" style="2" customWidth="1"/>
@@ -1665,7 +1670,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="12">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -2041,7 +2046,7 @@
         <v>268</v>
       </c>
       <c r="D33" s="9">
-        <v>4.24</v>
+        <v>158.75</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>60</v>
@@ -2099,7 +2104,7 @@
         <v>43123030</v>
       </c>
       <c r="F36" s="12">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2199,7 +2204,7 @@
         <v>74</v>
       </c>
       <c r="F41" s="12">
-        <v>33</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2259,7 +2264,7 @@
         <v>80</v>
       </c>
       <c r="F44" s="12">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2299,7 +2304,7 @@
         <v>84</v>
       </c>
       <c r="F46" s="12">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2357,7 +2362,7 @@
         <v>90</v>
       </c>
       <c r="F49" s="12">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2525,7 +2530,7 @@
         <v>108</v>
       </c>
       <c r="F58" s="12">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2692,7 +2697,7 @@
         <v>126</v>
       </c>
       <c r="F67" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2886,7 +2891,7 @@
         <v>146</v>
       </c>
       <c r="F77" s="12">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -3126,7 +3131,7 @@
         <v>170</v>
       </c>
       <c r="F89" s="12">
-        <v>-6</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -3226,7 +3231,7 @@
         <v>180</v>
       </c>
       <c r="F94" s="12">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -3346,7 +3351,7 @@
         <v>192</v>
       </c>
       <c r="F100" s="12">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -3729,7 +3734,7 @@
         <v>231</v>
       </c>
       <c r="F120" s="12">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -3883,12 +3888,12 @@
         <v>253</v>
       </c>
       <c r="D128" s="7">
-        <v>8.51</v>
+        <v>7.67</v>
       </c>
       <c r="E128" s="10">
         <v>43107593</v>
       </c>
-      <c r="F128" s="6" t="s">
+      <c r="F128" s="13" t="s">
         <v>315</v>
       </c>
     </row>
@@ -3903,12 +3908,12 @@
         <v>253</v>
       </c>
       <c r="D129" s="7">
-        <v>8.51</v>
+        <v>7.67</v>
       </c>
       <c r="E129" s="10">
         <v>43107594</v>
       </c>
-      <c r="F129" s="6" t="s">
+      <c r="F129" s="13" t="s">
         <v>316</v>
       </c>
     </row>

--- a/prix/pex.xlsx
+++ b/prix/pex.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caisse5\Desktop\site-internet\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303B192A-FB9D-49B9-AA28-502371A361FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B84138-F4B2-4EC4-9F03-6256DED36F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{C27940F6-7049-4028-8D53-A9BC0C24D70B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="316">
   <si>
     <t>Pex coude 1/2F x16</t>
   </si>
@@ -984,15 +984,15 @@
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1078,9 +1078,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1088,10 +1085,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1429,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EDDEF9-0BC9-4BCE-BC53-B53A6E5EDDA0}">
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1440,7 +1440,7 @@
     <col min="3" max="3" width="12.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="13"/>
+    <col min="6" max="6" width="11.5546875" style="11"/>
     <col min="7" max="7" width="22.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="51.77734375" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.77734375" style="2" customWidth="1"/>
@@ -1464,7 +1464,7 @@
       <c r="E1" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>314</v>
       </c>
       <c r="G1" s="1"/>
@@ -1483,14 +1483,14 @@
       <c r="C2" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="13">
         <v>5.49</v>
       </c>
       <c r="E2" s="8">
         <v>43122970</v>
       </c>
       <c r="F2" s="12">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1503,7 +1503,7 @@
       <c r="C3" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="13">
         <v>8.8000000000000007</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -1523,7 +1523,7 @@
       <c r="C4" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="13">
         <v>11.68</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -1543,7 +1543,7 @@
       <c r="C5" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="13">
         <v>5.23</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -1563,7 +1563,7 @@
       <c r="C6" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="13">
         <v>8.2799999999999994</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -1583,7 +1583,7 @@
       <c r="C7" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="13">
         <v>10.97</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -1603,14 +1603,14 @@
       <c r="C8" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="13">
         <v>4.9000000000000004</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="12">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1623,14 +1623,14 @@
       <c r="C9" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="13">
         <v>5.28</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="12">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1643,7 +1643,7 @@
       <c r="C10" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="13">
         <v>8.6</v>
       </c>
       <c r="E10" s="8" t="s">
@@ -1663,14 +1663,14 @@
       <c r="C11" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="13">
         <v>2.2000000000000002</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="12">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1683,7 +1683,7 @@
       <c r="C12" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="13">
         <v>7.19</v>
       </c>
       <c r="E12" s="8" t="s">
@@ -1703,7 +1703,7 @@
       <c r="C13" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="13">
         <v>5.94</v>
       </c>
       <c r="E13" s="8" t="s">
@@ -1723,7 +1723,7 @@
       <c r="C14" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="13">
         <v>8.1999999999999993</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -1743,7 +1743,7 @@
       <c r="C15" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="13">
         <v>9.4500000000000011</v>
       </c>
       <c r="E15" s="8">
@@ -1760,14 +1760,14 @@
       <c r="C16" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="13">
         <v>96.15</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F16" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
@@ -1777,7 +1777,7 @@
       <c r="C17" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="13">
         <v>88.9</v>
       </c>
       <c r="E17" s="8" t="s">
@@ -1794,14 +1794,14 @@
       <c r="C18" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="13">
         <v>141.72</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F18" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
@@ -1811,7 +1811,7 @@
       <c r="C19" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="13">
         <v>141.72</v>
       </c>
       <c r="E19" s="8" t="s">
@@ -1828,7 +1828,7 @@
       <c r="C20" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="13">
         <v>63.08</v>
       </c>
       <c r="E20" s="8" t="s">
@@ -1845,14 +1845,14 @@
       <c r="C21" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="13">
         <v>63.08</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>36</v>
       </c>
       <c r="F21" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
@@ -1862,14 +1862,14 @@
       <c r="C22" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="13">
         <v>2.0100000000000002</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>38</v>
       </c>
       <c r="F22" s="12">
-        <v>468</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
@@ -1879,7 +1879,7 @@
       <c r="C23" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="13">
         <v>3.75</v>
       </c>
       <c r="E23" s="8" t="s">
@@ -1896,7 +1896,7 @@
       <c r="C24" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="13">
         <v>7.07</v>
       </c>
       <c r="E24" s="8" t="s">
@@ -1911,7 +1911,7 @@
         <v>45</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="9">
+      <c r="D25" s="13">
         <v>12.61</v>
       </c>
       <c r="E25" s="8" t="s">
@@ -1928,7 +1928,7 @@
       <c r="C26" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="13">
         <v>8.65</v>
       </c>
       <c r="E26" s="8" t="s">
@@ -1943,7 +1943,7 @@
         <v>49</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="9">
+      <c r="D27" s="13">
         <v>208.51</v>
       </c>
       <c r="E27" s="8" t="s">
@@ -1960,7 +1960,7 @@
       <c r="C28" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="13">
         <v>157.20000000000002</v>
       </c>
       <c r="E28" s="8" t="s">
@@ -1977,7 +1977,7 @@
       <c r="C29" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="13">
         <v>67.8</v>
       </c>
       <c r="E29" s="8" t="s">
@@ -1994,7 +1994,7 @@
       <c r="C30" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="13">
         <v>106.87</v>
       </c>
       <c r="E30" s="8" t="s">
@@ -2011,7 +2011,7 @@
       <c r="C31" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="13">
         <v>70.37</v>
       </c>
       <c r="E31" s="8" t="s">
@@ -2028,7 +2028,7 @@
       <c r="C32" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="13">
         <v>106.87</v>
       </c>
       <c r="E32" s="8" t="s">
@@ -2045,7 +2045,7 @@
       <c r="C33" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="13">
         <v>158.75</v>
       </c>
       <c r="E33" s="8" t="s">
@@ -2062,7 +2062,7 @@
       <c r="C34" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="13">
         <v>3.17</v>
       </c>
       <c r="E34" s="8" t="s">
@@ -2077,7 +2077,7 @@
         <v>64</v>
       </c>
       <c r="C35" s="6"/>
-      <c r="D35" s="9">
+      <c r="D35" s="13">
         <v>45.910000000000004</v>
       </c>
       <c r="E35" s="8">
@@ -2097,14 +2097,14 @@
       <c r="C36" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="13">
         <v>3.61</v>
       </c>
       <c r="E36" s="8">
         <v>43123030</v>
       </c>
       <c r="F36" s="12">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2117,7 +2117,7 @@
       <c r="C37" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="13">
         <v>5.8</v>
       </c>
       <c r="E37" s="8" t="s">
@@ -2137,7 +2137,7 @@
       <c r="C38" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="13">
         <v>5.93</v>
       </c>
       <c r="E38" s="8" t="s">
@@ -2157,7 +2157,7 @@
       <c r="C39" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="13">
         <v>5.71</v>
       </c>
       <c r="E39" s="8" t="s">
@@ -2177,7 +2177,7 @@
       <c r="C40" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="13">
         <v>9.7200000000000006</v>
       </c>
       <c r="E40" s="8" t="s">
@@ -2197,14 +2197,14 @@
       <c r="C41" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="13">
         <v>4.6900000000000004</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F41" s="12">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2217,7 +2217,7 @@
       <c r="C42" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="13">
         <v>5.49</v>
       </c>
       <c r="E42" s="8" t="s">
@@ -2237,7 +2237,7 @@
       <c r="C43" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="13">
         <v>6.0600000000000005</v>
       </c>
       <c r="E43" s="8" t="s">
@@ -2257,14 +2257,14 @@
       <c r="C44" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="13">
         <v>6.22</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>80</v>
       </c>
       <c r="F44" s="12">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2277,7 +2277,7 @@
       <c r="C45" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="13">
         <v>9.64</v>
       </c>
       <c r="E45" s="8" t="s">
@@ -2297,14 +2297,14 @@
       <c r="C46" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="13">
         <v>8.68</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>84</v>
       </c>
       <c r="F46" s="12">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2315,7 +2315,7 @@
         <v>87</v>
       </c>
       <c r="C47" s="6"/>
-      <c r="D47" s="9">
+      <c r="D47" s="13">
         <v>11.8</v>
       </c>
       <c r="E47" s="8" t="s">
@@ -2335,7 +2335,7 @@
       <c r="C48" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="13">
         <v>18.05</v>
       </c>
       <c r="E48" s="8" t="s">
@@ -2355,7 +2355,7 @@
       <c r="C49" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="13">
         <v>8.370000000000001</v>
       </c>
       <c r="E49" s="8" t="s">
@@ -2375,7 +2375,7 @@
       <c r="C50" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="13">
         <v>15.88</v>
       </c>
       <c r="E50" s="8" t="s">
@@ -2390,7 +2390,7 @@
         <v>95</v>
       </c>
       <c r="C51" s="6"/>
-      <c r="D51" s="9">
+      <c r="D51" s="13">
         <v>9.75</v>
       </c>
       <c r="E51" s="8" t="s">
@@ -2405,7 +2405,7 @@
         <v>97</v>
       </c>
       <c r="C52" s="6"/>
-      <c r="D52" s="9">
+      <c r="D52" s="13">
         <v>11.08</v>
       </c>
       <c r="E52" s="8" t="s">
@@ -2425,7 +2425,7 @@
       <c r="C53" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="13">
         <v>17.21</v>
       </c>
       <c r="E53" s="8" t="s">
@@ -2445,7 +2445,7 @@
       <c r="C54" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="13">
         <v>13.66</v>
       </c>
       <c r="E54" s="8" t="s">
@@ -2465,7 +2465,7 @@
       <c r="C55" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="13">
         <v>13.88</v>
       </c>
       <c r="E55" s="8" t="s">
@@ -2485,7 +2485,7 @@
       <c r="C56" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="13">
         <v>21.26</v>
       </c>
       <c r="E56" s="8" t="s">
@@ -2505,7 +2505,7 @@
       <c r="C57" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="13">
         <v>21.26</v>
       </c>
       <c r="E57" s="8" t="s">
@@ -2523,7 +2523,7 @@
         <v>109</v>
       </c>
       <c r="C58" s="6"/>
-      <c r="D58" s="9">
+      <c r="D58" s="13">
         <v>6.15</v>
       </c>
       <c r="E58" s="8" t="s">
@@ -2541,7 +2541,7 @@
         <v>111</v>
       </c>
       <c r="C59" s="6"/>
-      <c r="D59" s="9">
+      <c r="D59" s="13">
         <v>9.99</v>
       </c>
       <c r="E59" s="8" t="s">
@@ -2559,7 +2559,7 @@
         <v>113</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="9">
+      <c r="D60" s="13">
         <v>15.49</v>
       </c>
       <c r="E60" s="8" t="s">
@@ -2579,7 +2579,7 @@
       <c r="C61" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="13">
         <v>20.34</v>
       </c>
       <c r="E61" s="8" t="s">
@@ -2599,14 +2599,14 @@
       <c r="C62" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="13">
         <v>6.92</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>116</v>
       </c>
       <c r="F62" s="12">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2619,7 +2619,7 @@
       <c r="C63" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="13">
         <v>8.39</v>
       </c>
       <c r="E63" s="8" t="s">
@@ -2636,7 +2636,7 @@
       <c r="C64" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D64" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="E64" s="8" t="s">
@@ -2653,7 +2653,7 @@
       <c r="C65" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D65" s="13">
         <v>9.99</v>
       </c>
       <c r="E65" s="8" t="s">
@@ -2670,7 +2670,7 @@
       <c r="C66" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D66" s="13">
         <v>9.99</v>
       </c>
       <c r="E66" s="8" t="s">
@@ -2690,14 +2690,14 @@
       <c r="C67" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="13">
         <v>5.53</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>126</v>
       </c>
       <c r="F67" s="12">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2710,7 +2710,7 @@
       <c r="C68" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D68" s="13">
         <v>8.8000000000000007</v>
       </c>
       <c r="E68" s="8" t="s">
@@ -2730,7 +2730,7 @@
       <c r="C69" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D69" s="13">
         <v>13.77</v>
       </c>
       <c r="E69" s="8" t="s">
@@ -2750,14 +2750,14 @@
       <c r="C70" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="D70" s="9">
-        <v>4.68</v>
+      <c r="D70" s="13">
+        <v>4.71</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>132</v>
       </c>
       <c r="F70" s="12">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2770,14 +2770,14 @@
       <c r="C71" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D71" s="13">
         <v>5.42</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>134</v>
       </c>
       <c r="F71" s="12">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -2787,14 +2787,14 @@
       <c r="C72" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D72" s="13">
         <v>0.68</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>136</v>
       </c>
       <c r="F72" s="12">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -2804,7 +2804,7 @@
       <c r="C73" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D73" s="13">
         <v>0.68</v>
       </c>
       <c r="E73" s="8" t="s">
@@ -2824,14 +2824,14 @@
       <c r="C74" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D74" s="13">
         <v>7.96</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>140</v>
       </c>
       <c r="F74" s="12">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -2844,7 +2844,7 @@
       <c r="C75" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D75" s="13">
         <v>19.14</v>
       </c>
       <c r="E75" s="8" t="s">
@@ -2864,7 +2864,7 @@
       <c r="C76" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D76" s="13">
         <v>23.35</v>
       </c>
       <c r="E76" s="8" t="s">
@@ -2884,7 +2884,7 @@
       <c r="C77" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D77" s="13">
         <v>9.9700000000000006</v>
       </c>
       <c r="E77" s="8" t="s">
@@ -2904,7 +2904,7 @@
       <c r="C78" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D78" s="13">
         <v>10.620000000000001</v>
       </c>
       <c r="E78" s="8" t="s">
@@ -2924,7 +2924,7 @@
       <c r="C79" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D79" s="13">
         <v>11.86</v>
       </c>
       <c r="E79" s="8" t="s">
@@ -2944,14 +2944,14 @@
       <c r="C80" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D80" s="13">
         <v>10.55</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>152</v>
       </c>
       <c r="F80" s="12">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -2964,7 +2964,7 @@
       <c r="C81" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D81" s="13">
         <v>12.63</v>
       </c>
       <c r="E81" s="8" t="s">
@@ -2984,7 +2984,7 @@
       <c r="C82" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D82" s="13">
         <v>13.89</v>
       </c>
       <c r="E82" s="8" t="s">
@@ -3004,7 +3004,7 @@
       <c r="C83" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="D83" s="9">
+      <c r="D83" s="13">
         <v>12.1</v>
       </c>
       <c r="E83" s="8" t="s">
@@ -3024,7 +3024,7 @@
       <c r="C84" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="D84" s="9">
+      <c r="D84" s="13">
         <v>13.31</v>
       </c>
       <c r="E84" s="8" t="s">
@@ -3044,7 +3044,7 @@
       <c r="C85" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D85" s="13">
         <v>23.62</v>
       </c>
       <c r="E85" s="8" t="s">
@@ -3064,7 +3064,7 @@
       <c r="C86" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="D86" s="9">
+      <c r="D86" s="13">
         <v>6.61</v>
       </c>
       <c r="E86" s="8" t="s">
@@ -3084,7 +3084,7 @@
       <c r="C87" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="D87" s="9">
+      <c r="D87" s="13">
         <v>7.55</v>
       </c>
       <c r="E87" s="8" t="s">
@@ -3104,7 +3104,7 @@
       <c r="C88" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D88" s="9">
+      <c r="D88" s="13">
         <v>8.86</v>
       </c>
       <c r="E88" s="8" t="s">
@@ -3124,7 +3124,7 @@
       <c r="C89" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D89" s="9">
+      <c r="D89" s="13">
         <v>1.82</v>
       </c>
       <c r="E89" s="8" t="s">
@@ -3144,7 +3144,7 @@
       <c r="C90" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="D90" s="9">
+      <c r="D90" s="13">
         <v>4.8899999999999997</v>
       </c>
       <c r="E90" s="8" t="s">
@@ -3164,7 +3164,7 @@
       <c r="C91" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D91" s="9">
+      <c r="D91" s="13">
         <v>5.42</v>
       </c>
       <c r="E91" s="8" t="s">
@@ -3184,7 +3184,7 @@
       <c r="C92" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D92" s="9">
+      <c r="D92" s="13">
         <v>5.1100000000000003</v>
       </c>
       <c r="E92" s="8" t="s">
@@ -3204,7 +3204,7 @@
       <c r="C93" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D93" s="9">
+      <c r="D93" s="13">
         <v>10.02</v>
       </c>
       <c r="E93" s="8" t="s">
@@ -3224,7 +3224,7 @@
       <c r="C94" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D94" s="9">
+      <c r="D94" s="13">
         <v>2.1800000000000002</v>
       </c>
       <c r="E94" s="8" t="s">
@@ -3244,7 +3244,7 @@
       <c r="C95" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="D95" s="9">
+      <c r="D95" s="13">
         <v>8.32</v>
       </c>
       <c r="E95" s="8" t="s">
@@ -3264,7 +3264,7 @@
       <c r="C96" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D96" s="9">
+      <c r="D96" s="13">
         <v>8.32</v>
       </c>
       <c r="E96" s="8" t="s">
@@ -3284,7 +3284,7 @@
       <c r="C97" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D97" s="9">
+      <c r="D97" s="13">
         <v>7.84</v>
       </c>
       <c r="E97" s="8" t="s">
@@ -3304,7 +3304,7 @@
       <c r="C98" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D98" s="9">
+      <c r="D98" s="13">
         <v>13.31</v>
       </c>
       <c r="E98" s="8" t="s">
@@ -3324,7 +3324,7 @@
       <c r="C99" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D99" s="9">
+      <c r="D99" s="13">
         <v>8.25</v>
       </c>
       <c r="E99" s="8" t="s">
@@ -3344,7 +3344,7 @@
       <c r="C100" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D100" s="9">
+      <c r="D100" s="13">
         <v>6.87</v>
       </c>
       <c r="E100" s="8" t="s">
@@ -3364,7 +3364,7 @@
       <c r="C101" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D101" s="9">
+      <c r="D101" s="13">
         <v>26.18</v>
       </c>
       <c r="E101" s="8" t="s">
@@ -3384,14 +3384,14 @@
       <c r="C102" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="D102" s="9">
+      <c r="D102" s="13">
         <v>5.95</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>196</v>
       </c>
       <c r="F102" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -3404,7 +3404,7 @@
       <c r="C103" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="D103" s="9">
+      <c r="D103" s="13">
         <v>9.6300000000000008</v>
       </c>
       <c r="E103" s="8" t="s">
@@ -3424,7 +3424,7 @@
       <c r="C104" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D104" s="9">
+      <c r="D104" s="13">
         <v>10.48</v>
       </c>
       <c r="E104" s="8" t="s">
@@ -3444,7 +3444,7 @@
       <c r="C105" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D105" s="9">
+      <c r="D105" s="13">
         <v>6.61</v>
       </c>
       <c r="E105" s="8" t="s">
@@ -3464,7 +3464,7 @@
       <c r="C106" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D106" s="9">
+      <c r="D106" s="13">
         <v>5.83</v>
       </c>
       <c r="E106" s="8" t="s">
@@ -3484,7 +3484,7 @@
       <c r="C107" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="D107" s="9">
+      <c r="D107" s="13">
         <v>5.83</v>
       </c>
       <c r="E107" s="8" t="s">
@@ -3504,7 +3504,7 @@
       <c r="C108" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D108" s="9">
+      <c r="D108" s="13">
         <v>13.02</v>
       </c>
       <c r="E108" s="8" t="s">
@@ -3524,7 +3524,7 @@
       <c r="C109" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D109" s="9">
+      <c r="D109" s="13">
         <v>6.34</v>
       </c>
       <c r="E109" s="8" t="s">
@@ -3544,7 +3544,7 @@
       <c r="C110" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D110" s="9">
+      <c r="D110" s="13">
         <v>10.55</v>
       </c>
       <c r="E110" s="8" t="s">
@@ -3564,7 +3564,7 @@
       <c r="C111" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D111" s="9">
+      <c r="D111" s="13">
         <v>10.55</v>
       </c>
       <c r="E111" s="8" t="s">
@@ -3584,7 +3584,7 @@
       <c r="C112" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="D112" s="9">
+      <c r="D112" s="13">
         <v>10.55</v>
       </c>
       <c r="E112" s="8" t="s">
@@ -3604,7 +3604,7 @@
       <c r="C113" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="D113" s="9">
+      <c r="D113" s="13">
         <v>6</v>
       </c>
       <c r="E113" s="8" t="s">
@@ -3624,7 +3624,7 @@
       <c r="C114" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="D114" s="9">
+      <c r="D114" s="13">
         <v>7.57</v>
       </c>
       <c r="E114" s="8" t="s">
@@ -3641,7 +3641,7 @@
       <c r="C115" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D115" s="9">
+      <c r="D115" s="13">
         <v>6.61</v>
       </c>
       <c r="E115" s="8" t="s">
@@ -3656,7 +3656,7 @@
         <v>95</v>
       </c>
       <c r="C116" s="6"/>
-      <c r="D116" s="9">
+      <c r="D116" s="13">
         <v>10.89</v>
       </c>
       <c r="E116" s="8" t="s">
@@ -3673,7 +3673,7 @@
       <c r="C117" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D117" s="9">
+      <c r="D117" s="13">
         <v>9.17</v>
       </c>
       <c r="E117" s="8" t="s">
@@ -3690,14 +3690,14 @@
       <c r="C118" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D118" s="9">
+      <c r="D118" s="13">
         <v>10.65</v>
       </c>
       <c r="E118" s="8" t="s">
         <v>227</v>
       </c>
       <c r="F118" s="12">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -3707,7 +3707,7 @@
       <c r="C119" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="D119" s="9">
+      <c r="D119" s="13">
         <v>36.090000000000003</v>
       </c>
       <c r="E119" s="8" t="s">
@@ -3727,7 +3727,7 @@
       <c r="C120" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D120" s="9">
+      <c r="D120" s="13">
         <v>4.1900000000000004</v>
       </c>
       <c r="E120" s="8" t="s">
@@ -3747,7 +3747,7 @@
       <c r="C121" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D121" s="9">
+      <c r="D121" s="13">
         <v>5.37</v>
       </c>
       <c r="E121" s="8" t="s">
@@ -3767,7 +3767,7 @@
       <c r="C122" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="D122" s="9">
+      <c r="D122" s="13">
         <v>5.64</v>
       </c>
       <c r="E122" s="8" t="s">
@@ -3787,7 +3787,7 @@
       <c r="C123" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D123" s="9">
+      <c r="D123" s="13">
         <v>6.87</v>
       </c>
       <c r="E123" s="8" t="s">
@@ -3807,7 +3807,7 @@
       <c r="C124" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D124" s="9">
+      <c r="D124" s="13">
         <v>6.34</v>
       </c>
       <c r="E124" s="8" t="s">
@@ -3827,7 +3827,7 @@
       <c r="C125" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="D125" s="9">
+      <c r="D125" s="13">
         <v>12.1</v>
       </c>
       <c r="E125" s="8" t="s">
@@ -3847,7 +3847,7 @@
       <c r="C126" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D126" s="9">
+      <c r="D126" s="13">
         <v>12.1</v>
       </c>
       <c r="E126" s="8" t="s">
@@ -3867,7 +3867,7 @@
       <c r="C127" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="D127" s="9">
+      <c r="D127" s="13">
         <v>12.1</v>
       </c>
       <c r="E127" s="8">
@@ -3890,10 +3890,10 @@
       <c r="D128" s="7">
         <v>7.67</v>
       </c>
-      <c r="E128" s="10">
+      <c r="E128" s="9">
         <v>43107593</v>
       </c>
-      <c r="F128" s="13" t="s">
+      <c r="F128" s="11" t="s">
         <v>315</v>
       </c>
     </row>
@@ -3910,11 +3910,11 @@
       <c r="D129" s="7">
         <v>7.67</v>
       </c>
-      <c r="E129" s="10">
+      <c r="E129" s="9">
         <v>43107594</v>
       </c>
-      <c r="F129" s="13" t="s">
-        <v>316</v>
+      <c r="F129" s="11">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
